--- a/dealers.xlsx
+++ b/dealers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yar\Development\Python\Projects\dealers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\Projects\dealers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA11FD92-5684-4575-A21A-36489584EBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCAA3F-11E8-4D55-B662-F709A252B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1725" windowWidth="26565" windowHeight="13680" xr2:uid="{4BACD48B-E674-4181-97DC-8049B5031895}"/>
+    <workbookView xWindow="4980" yWindow="4050" windowWidth="28800" windowHeight="15345" xr2:uid="{4BACD48B-E674-4181-97DC-8049B5031895}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="559">
   <si>
     <t>Иван</t>
   </si>
@@ -1705,6 +1708,9 @@
   </si>
   <si>
     <t>ООО "АДД", ИП Александр Владимирович Левин</t>
+  </si>
+  <si>
+    <t>2025.09.16 10:28:00</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1820,6 +1826,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2136,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA6E610-443C-4EC5-9D33-A2261629B944}">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2165,7 @@
     <col min="6" max="6" width="51.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="17" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -2179,7 +2194,7 @@
       <c r="H1" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="15" t="s">
         <v>556</v>
       </c>
     </row>
@@ -2198,7 +2213,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="13"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2219,7 +2234,7 @@
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -2242,7 +2257,7 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2259,7 +2274,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="13"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -2278,7 +2293,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="13"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2299,7 +2314,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="13"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -2324,7 +2339,7 @@
         <v>7804215143</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -2347,7 +2362,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -2372,7 +2387,7 @@
         <v>2304054266</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -2395,7 +2410,7 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -2414,7 +2429,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="13"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -2437,7 +2452,7 @@
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -2456,7 +2471,7 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -2475,7 +2490,7 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -2500,7 +2515,7 @@
         <v>2312270581</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -2521,7 +2536,7 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -2542,7 +2557,7 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -2563,7 +2578,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -2582,7 +2597,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="13"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -2601,7 +2616,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="13"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -2622,7 +2637,7 @@
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -2645,7 +2660,7 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -2668,7 +2683,7 @@
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -2687,7 +2702,7 @@
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -2710,7 +2725,7 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
@@ -2735,7 +2750,7 @@
         <v>2130224301</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
@@ -2758,7 +2773,7 @@
         <v>7104069200</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
@@ -2779,7 +2794,7 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -2802,7 +2817,7 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -2827,7 +2842,9 @@
         <v>6905051549</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="I31" s="16" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
@@ -2848,7 +2865,7 @@
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
@@ -2867,7 +2884,7 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -2890,7 +2907,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
@@ -2909,7 +2926,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="13"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -2926,7 +2943,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="13"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
@@ -2951,7 +2968,7 @@
         <v>5012076211</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
@@ -2976,7 +2993,7 @@
         <v>7806570263</v>
       </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
@@ -2999,7 +3016,7 @@
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
@@ -3022,7 +3039,7 @@
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
@@ -3045,7 +3062,7 @@
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
@@ -3068,7 +3085,7 @@
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
@@ -3087,7 +3104,7 @@
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
@@ -3108,7 +3125,7 @@
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
@@ -3131,7 +3148,7 @@
         <v>363</v>
       </c>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
@@ -3154,7 +3171,7 @@
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
@@ -3173,7 +3190,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="13"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
@@ -3198,7 +3215,7 @@
         <v>373</v>
       </c>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
@@ -3221,7 +3238,7 @@
       </c>
       <c r="G49" s="13"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
@@ -3244,7 +3261,7 @@
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
@@ -3269,7 +3286,7 @@
         <v>385</v>
       </c>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
@@ -3290,7 +3307,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="13"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
@@ -3313,7 +3330,7 @@
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
@@ -3338,7 +3355,7 @@
         <v>393</v>
       </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
@@ -3361,7 +3378,7 @@
       </c>
       <c r="G55" s="13"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
@@ -3382,7 +3399,7 @@
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
@@ -3405,7 +3422,7 @@
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
@@ -3428,7 +3445,7 @@
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
@@ -3451,7 +3468,7 @@
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
@@ -3474,7 +3491,7 @@
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
@@ -3497,7 +3514,7 @@
         <v>416</v>
       </c>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
@@ -3520,7 +3537,7 @@
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -3543,7 +3560,7 @@
       </c>
       <c r="G63" s="13"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
@@ -3566,7 +3583,7 @@
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
@@ -3589,7 +3606,7 @@
         <v>429</v>
       </c>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
@@ -3610,7 +3627,7 @@
         <v>429</v>
       </c>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
@@ -3629,7 +3646,7 @@
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -3652,7 +3669,7 @@
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
@@ -3675,7 +3692,7 @@
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
@@ -3698,7 +3715,7 @@
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
@@ -3719,7 +3736,7 @@
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
@@ -3738,7 +3755,7 @@
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
@@ -3759,7 +3776,7 @@
         <v>446</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
@@ -3782,7 +3799,7 @@
       </c>
       <c r="G74" s="13"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
@@ -3807,7 +3824,7 @@
         <v>454</v>
       </c>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
@@ -3828,7 +3845,7 @@
       </c>
       <c r="G76" s="13"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
@@ -3851,7 +3868,7 @@
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
@@ -3876,7 +3893,7 @@
         <v>466</v>
       </c>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
@@ -3897,7 +3914,7 @@
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
@@ -3922,7 +3939,7 @@
         <v>472</v>
       </c>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
@@ -3939,7 +3956,7 @@
       <c r="F81" s="11"/>
       <c r="G81" s="13"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
@@ -3958,7 +3975,7 @@
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
@@ -3979,7 +3996,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="13"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
@@ -4002,7 +4019,7 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
@@ -4019,7 +4036,7 @@
       <c r="F85" s="11"/>
       <c r="G85" s="13"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
@@ -4042,7 +4059,7 @@
         <v>483</v>
       </c>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
@@ -4067,7 +4084,7 @@
         <v>488</v>
       </c>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
@@ -4090,7 +4107,7 @@
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
@@ -4115,7 +4132,7 @@
         <v>493</v>
       </c>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
@@ -4134,7 +4151,7 @@
       <c r="F90" s="11"/>
       <c r="G90" s="13"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
@@ -4157,7 +4174,7 @@
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
@@ -4174,7 +4191,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="13"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
@@ -4199,7 +4216,7 @@
         <v>504</v>
       </c>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
@@ -4222,7 +4239,7 @@
         <v>504</v>
       </c>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
@@ -4245,7 +4262,7 @@
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
@@ -4266,7 +4283,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="13"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
@@ -4291,7 +4308,7 @@
         <v>3702745881</v>
       </c>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
@@ -4310,7 +4327,7 @@
       <c r="F98" s="11"/>
       <c r="G98" s="13"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
@@ -4331,7 +4348,7 @@
       <c r="F99" s="11"/>
       <c r="G99" s="13"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
@@ -4354,7 +4371,7 @@
       </c>
       <c r="G100" s="13"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
@@ -4375,7 +4392,7 @@
       <c r="F101" s="11"/>
       <c r="G101" s="13"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
@@ -4396,7 +4413,7 @@
       <c r="F102" s="11"/>
       <c r="G102" s="13"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
@@ -4421,7 +4438,7 @@
         <v>3702745881</v>
       </c>
       <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
@@ -4444,7 +4461,7 @@
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
@@ -4467,7 +4484,7 @@
         <v>541</v>
       </c>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
@@ -4490,7 +4507,7 @@
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
@@ -4511,7 +4528,7 @@
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
@@ -4534,7 +4551,7 @@
         <v>548</v>
       </c>
       <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="I108" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G108">

--- a/dealers.xlsx
+++ b/dealers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="870" yWindow="495" windowWidth="26565" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2235" yWindow="2520" windowWidth="26565" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -504,10 +504,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -521,8 +521,8 @@
     <col width="13.7109375" customWidth="1" style="4" min="7" max="7"/>
     <col width="13.85546875" customWidth="1" style="2" min="8" max="8"/>
     <col width="19.5703125" customWidth="1" style="14" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="2" min="10" max="10"/>
-    <col width="9.140625" customWidth="1" style="2" min="11" max="16384"/>
+    <col width="9.140625" customWidth="1" style="2" min="10" max="11"/>
+    <col width="9.140625" customWidth="1" style="2" min="12" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customFormat="1" customHeight="1" s="7">
@@ -1462,9 +1462,9 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="14" t="inlineStr">
-        <is>
-          <t>2025.09.16 10:28:00</t>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025.09.16 10:27:11</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       <c r="H81" t="n">
         <v>1</v>
       </c>
-      <c r="I81" s="14" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>2025.09.16 18:49:37</t>
         </is>
@@ -3878,21 +3878,6 @@
       <c r="G108" s="11" t="inlineStr">
         <is>
           <t>4629036792</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="8" t="inlineStr">
-        <is>
-          <t>yar</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>2025.09.17 19:41:28</t>
         </is>
       </c>
     </row>
